--- a/study bug reporting, improvements results/outputs/bugs_CAMApp.xlsx
+++ b/study bug reporting, improvements results/outputs/bugs_CAMApp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -50,13 +50,19 @@
     <t>feedback_critic</t>
   </si>
   <si>
+    <t>bug_browser_used_additional</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>21</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>bug</t>
@@ -107,6 +113,9 @@
   </si>
   <si>
     <t>Right after the webpage is loaded (with slow internet), the layout is slightly different from the normal layout (see screenshot). Shortly after, it switches to the normal layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After drawing the CAMs and then clicking "continue", I land on the "network indicators module" page from the screenshot, which gives an overview of the module. After clicking on any other module(part), I can not get back to that page. Example: after landing on the initial page from the screenshot, I click on "get network descriptives". From there, I don't know how to navigate back to the  "network indicators module" landing page... or maybe I'm just stupid ;) </t>
   </si>
   <si>
     <t xml:space="preserve">Im Teil "Summarize by approximate matching" lassen sich Worte die in den Boxen dargestellt werden nicht per Drag&amp;Drop verschieben.
@@ -279,128 +288,184 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>5.0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/study bug reporting, improvements results/outputs/bugs_CAMApp.xlsx
+++ b/study bug reporting, improvements results/outputs/bugs_CAMApp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -56,13 +56,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>bug</t>
@@ -74,12 +77,12 @@
     <t>analysis</t>
   </si>
   <si>
+    <t>preprocessing</t>
+  </si>
+  <si>
     <t>upload</t>
   </si>
   <si>
-    <t>preprocessing</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
   </si>
   <si>
     <t>124</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
   <si>
     <t>Windows 10</t>
@@ -112,14 +118,18 @@
 </t>
   </si>
   <si>
-    <t>Right after the webpage is loaded (with slow internet), the layout is slightly different from the normal layout (see screenshot). Shortly after, it switches to the normal layout</t>
-  </si>
-  <si>
     <t xml:space="preserve">After drawing the CAMs and then clicking "continue", I land on the "network indicators module" page from the screenshot, which gives an overview of the module. After clicking on any other module(part), I can not get back to that page. Example: after landing on the initial page from the screenshot, I click on "get network descriptives". From there, I don't know how to navigate back to the  "network indicators module" landing page... or maybe I'm just stupid ;) </t>
   </si>
   <si>
     <t xml:space="preserve">Im Teil "Summarize by approximate matching" lassen sich Worte die in den Boxen dargestellt werden nicht per Drag&amp;Drop verschieben.
 </t>
+  </si>
+  <si>
+    <t>The slice model is not working properly. For some data sets there is a error.
+Internally the nodes and merged dataset cannot be matched if the study design only allowed "bidirectional" connections (Julius).</t>
+  </si>
+  <si>
+    <t>Right after the webpage is loaded (with slow internet), the layout is slightly different from the normal layout (see screenshot). Shortly after, it switches to the normal layout</t>
   </si>
   <si>
     <t/>
@@ -300,40 +310,40 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -341,43 +351,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -385,16 +395,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -406,22 +416,22 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -429,43 +439,87 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
